--- a/biology/Botanique/Friedrich_Sellow/Friedrich_Sellow.xlsx
+++ b/biology/Botanique/Friedrich_Sellow/Friedrich_Sellow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Sellow (ou Sello) (12 mars 1789 à Potsdam – octobre 1831 à Rio Doce, Brésil) est un botaniste et naturaliste prussien qui est l'un des premiers à étudier la flore du Brésil.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Sellow est le fils aîné de Carl Julius Samuel Sello, qui était jardinier à la cour royale de Potsdam. Dans sa jeunesse, Friedrich Sellow commence par apprendre le métier de jardinier avec ses parents à Potsdam, puis il part travailler et étudier au Jardin botanique de Berlin, sous la protection de Carl Ludwig Willdenow (1765-1812). En 1810, Sellow entreprend un voyage d'études à Paris où il assiste aux conférences scientifiques de Georges Cuvier (1769-1832) et de Jean-Baptiste Lamarck (1744-1829) tout en travaillant au Jardin des Plantes.
 L'année suivante, à l'aide des recommandations et de l'aide financière de son compatriote, le géographe Alexander von Humboldt (1769-1859) il se rend aux Pays-Bas et en Grande-Bretagne où il rencontre les botanistes les plus influents de l'époque. La guerre et le blocus qui oppose alors la France et le Royaume-Uni empêchent Sellow de revenir en Europe continentale pendant un certain temps. Le baron  von Langsdorff (1774-1852), alors diplomate russe à Rio de Janeiro, l'invite à se joindre à une expédition scientifique qu'il est en train d'organiser pour explorer le Brésil. Après des préparatifs, et financé par des botanistes britanniques, il embarque en 1814 pour Rio de Janeiro. Au Brésil, lui et ses collègues sont accueillis par le gouvernement colonial portugais et reçoivent un salaire annuel en tant que fonctionnaires naturalistes. Sellow apprend le portugais et réalise dans un premier temps de courtes excursions scientifiques dans les environs de Rio de Janeiro. Il commence par suivre, entre 1815 et 1817, une expédition conduite par le prince allemand Maximilian zu Wied-Neuwied (1782-1867). Il récolte alors de nombreux spécimens qu'il  envoie à Londres. Une des plantes qu'il découvre, la Sauge écarlate (Salvia splendens), devient rapidement une plante ornementale très populaire en Angleterre et en Allemagne.
